--- a/parameter/Pythagoras-G.xlsx
+++ b/parameter/Pythagoras-G.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>start_x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +50,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>306, 178, 20, 20, 0.5</t>
-  </si>
-  <si>
-    <t>206, 178, 20, 20, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>206, 182, 20, 20, 10</t>
+  </si>
+  <si>
+    <t>302, 182, 20, 20, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206, 326, 20, 20, 15</t>
+  </si>
+  <si>
+    <t>302, 326, 20, 20, 0.5</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -445,7 +451,7 @@
         <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -455,6 +461,9 @@
       <c r="B3">
         <v>178</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -462,6 +471,9 @@
       </c>
       <c r="B4">
         <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
